--- a/example/WaveForm流程设计.xlsx
+++ b/example/WaveForm流程设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WaveForm" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>WaveForm GUI</t>
   </si>
@@ -140,7 +140,7 @@
     <t>载入文件</t>
   </si>
   <si>
-    <t>选择文件</t>
+    <t>选择文件/移除文件/清空文件</t>
   </si>
   <si>
     <t>完成绘制（将SpeHist对象append到self的list中）</t>
@@ -154,12 +154,12 @@
   <si>
     <t>默认设置
 1. lineEdit清空并关闭
-2. 绘制push开启</t>
+2. 存在选择文件，绘制push开启，否则关闭</t>
   </si>
   <si>
     <t>自定义设置下
 1. lineEdit开启
-2. 绘制push开启</t>
+2. 存在选择文件，绘制push开启。否则关闭</t>
   </si>
   <si>
     <t>同上</t>
@@ -217,6 +217,9 @@
     <t>载入SPE文件（载入文件非空）</t>
   </si>
   <si>
+    <t>选择文件/移除文件</t>
+  </si>
+  <si>
     <t>筛选文件（筛选结果非空）</t>
   </si>
   <si>
@@ -232,11 +235,15 @@
     <t>关闭控件</t>
   </si>
   <si>
-    <t>添加文件push和移除文件push控制控件开关
-若listview中为空，则关闭控件，否则开启控件</t>
+    <t>1. 选择文件，则控件开启
+2. 移除文件，控件关闭（若已经筛选出部分文件，则清空listView）</t>
   </si>
   <si>
     <t>后脉冲参数设置</t>
+  </si>
+  <si>
+    <t>1. 选择文件， 控件打开
+2. 移除文件， 控件清空并关闭</t>
   </si>
   <si>
     <t>判断listview2中内容是否空，若非空则开启控件</t>
@@ -253,13 +260,23 @@
     <t>进程管理</t>
   </si>
   <si>
+    <t>关闭</t>
+  </si>
+  <si>
     <t>开启控件</t>
   </si>
   <si>
     <t>保存文件设置</t>
   </si>
   <si>
+    <t>1. 选择文件，无动作
+2. 移除文件，控件关闭并且清空</t>
+  </si>
+  <si>
     <t>选择文件开启，并且设置默认保存文件</t>
+  </si>
+  <si>
+    <t>选择文件关闭，并且清空保存文件名称</t>
   </si>
   <si>
     <t>关闭选择文件按键以及设置lineEdit不可编辑
@@ -267,6 +284,16 @@
   </si>
   <si>
     <t>读取AftePulse</t>
+  </si>
+  <si>
+    <t>后脉冲率</t>
+  </si>
+  <si>
+    <t>关闭控件
+不可见</t>
+  </si>
+  <si>
+    <t>若筛选文件非空，则打开控件</t>
   </si>
 </sst>
 </file>
@@ -274,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -285,6 +312,135 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,136 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,187 +468,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,21 +659,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -664,6 +676,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,17 +736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,172 +759,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,16 +920,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1228,7 +1252,7 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
@@ -1252,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1273,20 +1297,20 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1300,10 +1324,10 @@
       <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1327,20 +1351,20 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1354,14 +1378,14 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1402,8 +1426,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1422,17 +1446,17 @@
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
@@ -1453,10 +1477,10 @@
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1468,17 +1492,17 @@
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1492,17 +1516,17 @@
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1516,17 +1540,17 @@
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1563,157 +1587,248 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="19.1" customWidth="1"/>
-    <col min="5" max="6" width="14.4" customWidth="1"/>
-    <col min="7" max="7" width="19.1" customWidth="1"/>
+    <col min="1" max="12" width="15.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="92" customHeight="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" ht="92" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" t="s">
+      <c r="I1" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" ht="92" customHeight="1" spans="1:7">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" ht="92" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" ht="92" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" ht="92" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="92" customHeight="1" spans="1:7">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" t="s">
-        <v>61</v>
+    <row r="4" ht="92" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="5" ht="92" customHeight="1" spans="1:7">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1" t="s">
+    <row r="5" ht="92" customHeight="1" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" ht="92" customHeight="1" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" ht="92" customHeight="1" spans="1:7">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" t="s">
-        <v>37</v>
+    <row r="7" ht="92" customHeight="1" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="7" ht="92" customHeight="1"/>
-    <row r="8" ht="92" customHeight="1"/>
+    <row r="8" ht="92" customHeight="1" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="9" ht="92" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="4">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/example/WaveForm流程设计.xlsx
+++ b/example/WaveForm流程设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WaveForm" sheetId="1" r:id="rId1"/>
     <sheet name="SPE" sheetId="2" r:id="rId2"/>
     <sheet name="AfterPulse" sheetId="3" r:id="rId3"/>
+    <sheet name="QDC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>WaveForm GUI</t>
   </si>
@@ -294,6 +295,87 @@
   </si>
   <si>
     <t>若筛选文件非空，则打开控件</t>
+  </si>
+  <si>
+    <t>QDC</t>
+  </si>
+  <si>
+    <t>选择文件/选择信道</t>
+  </si>
+  <si>
+    <t>删除文件</t>
+  </si>
+  <si>
+    <t>绘图</t>
+  </si>
+  <si>
+    <t>加载模块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择文件
+1. 填写选择的文件信息
+</t>
+  </si>
+  <si>
+    <t>选择信道
+1. 更改或者填写文件信息</t>
+  </si>
+  <si>
+    <t>lineEdit清空</t>
+  </si>
+  <si>
+    <t>不变</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 控件开启
+2. 设置spin的范围
+</t>
+  </si>
+  <si>
+    <t>1. 控件归零
+2. 恢复默认状态
+3. 关闭</t>
+  </si>
+  <si>
+    <t>单文件绘制：
+1. 拟合开启</t>
+  </si>
+  <si>
+    <t>多文件绘制
+1. 拟合关闭</t>
+  </si>
+  <si>
+    <t>事例数比例计算</t>
+  </si>
+  <si>
+    <t>清空并关闭</t>
+  </si>
+  <si>
+    <t>单文件绘制：
+1. 控件开启</t>
+  </si>
+  <si>
+    <t>多文件绘制
+1. 控件关闭</t>
+  </si>
+  <si>
+    <t>1. 控件关闭
+2. 全部uncheck状态</t>
+  </si>
+  <si>
+    <t>单文件绘制
+1. 直方图开启
+2. 归一化关闭
+3. 散点图开启
+4. 拟合曲线开启</t>
+  </si>
+  <si>
+    <t>多文件绘制
+1. 直方图开启
+2. 归一化开启
+3. 散点图关闭
+4. 拟合曲线关闭</t>
   </si>
 </sst>
 </file>
@@ -909,9 +991,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1263,24 +1354,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="102" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
@@ -1288,53 +1379,53 @@
       </c>
     </row>
     <row r="2" ht="102" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="138" customHeight="1" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
@@ -1342,51 +1433,51 @@
       </c>
     </row>
     <row r="4" ht="102" customHeight="1" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="102" customHeight="1" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="s">
@@ -1426,7 +1517,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1440,120 +1531,120 @@
   </cols>
   <sheetData>
     <row r="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="89" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="89" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" ht="89" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" ht="89" customHeight="1" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1589,7 +1680,7 @@
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B3" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1599,226 +1690,226 @@
   </cols>
   <sheetData>
     <row r="1" ht="92" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="92" customHeight="1" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="92" customHeight="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" ht="92" customHeight="1" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" ht="92" customHeight="1" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" ht="92" customHeight="1" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" ht="92" customHeight="1" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1834,4 +1925,164 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="18.6" customWidth="1"/>
+    <col min="3" max="4" width="13.6" customWidth="1"/>
+    <col min="5" max="6" width="18.6" customWidth="1"/>
+    <col min="7" max="7" width="10.42" customWidth="1"/>
+    <col min="8" max="8" width="11.28" customWidth="1"/>
+    <col min="9" max="10" width="18.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="93" customHeight="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:8">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:8">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="93" customHeight="1" spans="1:8">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" ht="93" customHeight="1" spans="1:8">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" ht="93" customHeight="1" spans="1:8">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="93" customHeight="1"/>
+    <row r="8" ht="93" customHeight="1"/>
+    <row r="9" ht="93" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/example/WaveForm流程设计.xlsx
+++ b/example/WaveForm流程设计.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="8175" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WaveForm" sheetId="1" r:id="rId1"/>
     <sheet name="SPE" sheetId="2" r:id="rId2"/>
     <sheet name="AfterPulse" sheetId="3" r:id="rId3"/>
     <sheet name="QDC" sheetId="4" r:id="rId4"/>
+    <sheet name="RaiseTime" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
   <si>
     <t>WaveForm GUI</t>
   </si>
@@ -338,8 +339,13 @@
 3. 关闭</t>
   </si>
   <si>
+    <t xml:space="preserve">控件关闭
+</t>
+  </si>
+  <si>
     <t>单文件绘制：
-1. 拟合开启</t>
+1. 拟合开启
+2. 成员变量self.fit["model"] = Fit.NoFit</t>
   </si>
   <si>
     <t>多文件绘制
@@ -376,6 +382,100 @@
 2. 归一化开启
 3. 散点图关闭
 4. 拟合曲线关闭</t>
+  </si>
+  <si>
+    <t>RaiseTime</t>
+  </si>
+  <si>
+    <t>初始状态/加载SPE文件</t>
+  </si>
+  <si>
+    <t>选择SPE文件</t>
+  </si>
+  <si>
+    <t>移除文件</t>
+  </si>
+  <si>
+    <t>筛选电荷区间</t>
+  </si>
+  <si>
+    <t>上升时间设置</t>
+  </si>
+  <si>
+    <t>循环计算</t>
+  </si>
+  <si>
+    <t>电荷筛选控件</t>
+  </si>
+  <si>
+    <t>控件关闭；数据清空</t>
+  </si>
+  <si>
+    <t>控件清空；开启</t>
+  </si>
+  <si>
+    <t>关闭控件；数据清空</t>
+  </si>
+  <si>
+    <t>筛选无数据
+无变化</t>
+  </si>
+  <si>
+    <t>筛选有数据
+无变化</t>
+  </si>
+  <si>
+    <t>设置完成
+无变化</t>
+  </si>
+  <si>
+    <t>重置设置
+无变化</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>文件信息控件</t>
+  </si>
+  <si>
+    <t>无变化</t>
+  </si>
+  <si>
+    <t>控件开启；填写文件信息</t>
+  </si>
+  <si>
+    <t>控件关闭； 保留数据</t>
+  </si>
+  <si>
+    <t>控件关闭；保留数据</t>
+  </si>
+  <si>
+    <t>控件开启；保留数据</t>
+  </si>
+  <si>
+    <t>保存循环控件</t>
+  </si>
+  <si>
+    <t>控件关闭； 清空数据</t>
+  </si>
+  <si>
+    <t>控件关闭；清空数据</t>
+  </si>
+  <si>
+    <t>控件开启；设置默认保存文件</t>
+  </si>
+  <si>
+    <t>数据筛选2控件</t>
+  </si>
+  <si>
+    <t>进程管理控件</t>
+  </si>
+  <si>
+    <t>绘图设置控件</t>
   </si>
 </sst>
 </file>
@@ -383,10 +483,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -394,45 +494,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,17 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,22 +528,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,23 +556,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +596,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,55 +650,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,30 +812,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -652,85 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +848,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,8 +856,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,17 +892,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,21 +908,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,11 +927,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,172 +946,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1354,24 +1451,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="102" customHeight="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
@@ -1379,53 +1476,53 @@
       </c>
     </row>
     <row r="2" ht="102" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="138" customHeight="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
@@ -1433,51 +1530,51 @@
       </c>
     </row>
     <row r="4" ht="102" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="102" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="s">
@@ -1517,7 +1614,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
@@ -1531,120 +1628,120 @@
   </cols>
   <sheetData>
     <row r="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="89" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="89" customHeight="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" ht="89" customHeight="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" ht="89" customHeight="1" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1690,226 +1787,226 @@
   </cols>
   <sheetData>
     <row r="1" ht="92" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="92" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="92" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" ht="92" customHeight="1" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" ht="92" customHeight="1" spans="1:11">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" ht="92" customHeight="1" spans="1:11">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" ht="92" customHeight="1" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1932,8 +2029,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1953,16 +2050,16 @@
       <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:8">
       <c r="A2" t="s">
@@ -1971,19 +2068,19 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:8">
       <c r="A3" t="s">
@@ -1992,18 +2089,18 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" ht="93" customHeight="1" spans="1:8">
       <c r="A4" t="s">
@@ -2012,39 +2109,39 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="F4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>86</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="93" customHeight="1" spans="1:8">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>90</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="93" customHeight="1" spans="1:8">
@@ -2054,18 +2151,18 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="F6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>93</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="93" customHeight="1"/>
@@ -2085,4 +2182,283 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="10" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="117" customHeight="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="117" customHeight="1" spans="1:10">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="117" customHeight="1" spans="1:10">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" ht="117" customHeight="1" spans="1:10">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" ht="117" customHeight="1" spans="1:10">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" ht="117" customHeight="1" spans="1:10">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="117" customHeight="1" spans="1:10">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="117" customHeight="1" spans="1:10">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="117" customHeight="1"/>
+    <row r="10" ht="117" customHeight="1"/>
+    <row r="11" ht="117" customHeight="1"/>
+    <row r="12" ht="117" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/example/WaveForm流程设计.xlsx
+++ b/example/WaveForm流程设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8175" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WaveForm" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="126">
   <si>
     <t>WaveForm GUI</t>
   </si>
@@ -405,6 +405,9 @@
     <t>循环计算</t>
   </si>
   <si>
+    <t>tat</t>
+  </si>
+  <si>
     <t>电荷筛选控件</t>
   </si>
   <si>
@@ -483,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -497,15 +500,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,75 +510,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,14 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -618,8 +538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,6 +554,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -640,6 +598,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -650,19 +653,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,157 +809,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,20 +847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,21 +873,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,21 +897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -941,157 +911,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,13 +1105,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1451,24 +1448,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="102" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
@@ -1476,53 +1473,53 @@
       </c>
     </row>
     <row r="2" ht="102" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="138" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
@@ -1530,51 +1527,51 @@
       </c>
     </row>
     <row r="4" ht="102" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="102" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="s">
@@ -1628,120 +1625,120 @@
   </cols>
   <sheetData>
     <row r="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="89" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="89" customHeight="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" ht="89" customHeight="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" ht="89" customHeight="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1787,226 +1784,226 @@
   </cols>
   <sheetData>
     <row r="1" ht="92" customHeight="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="92" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="92" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" ht="92" customHeight="1" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" ht="92" customHeight="1" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" ht="92" customHeight="1" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" ht="92" customHeight="1" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" ht="92" customHeight="1" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2050,16 +2047,16 @@
       <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:8">
       <c r="A2" t="s">
@@ -2068,19 +2065,19 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:8">
       <c r="A3" t="s">
@@ -2089,18 +2086,18 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" ht="93" customHeight="1" spans="1:8">
       <c r="A4" t="s">
@@ -2109,17 +2106,17 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2130,17 +2127,17 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="F5" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2151,17 +2148,17 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2187,10 +2184,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -2198,7 +2195,7 @@
     <col min="1" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="117" customHeight="1" spans="1:10">
+    <row r="1" ht="117" customHeight="1" spans="1:11">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2223,69 +2220,72 @@
         <v>101</v>
       </c>
       <c r="J1" s="1"/>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2" ht="117" customHeight="1" spans="1:10">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="117" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" t="s">
-        <v>113</v>
-      </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="117" customHeight="1" spans="1:10">
@@ -2293,100 +2293,100 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="117" customHeight="1" spans="1:10">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" ht="117" customHeight="1" spans="1:10">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="117" customHeight="1" spans="1:10">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -2418,31 +2418,31 @@
     </row>
     <row r="8" ht="117" customHeight="1" spans="1:10">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
